--- a/VerveStacks_SAU/SuppXLS/scen_tsparameters_ts_16.xlsx
+++ b/VerveStacks_SAU/SuppXLS/scen_tsparameters_ts_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D66C72C-7804-44AF-B734-DA6CEF6761A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4832C857-2A5C-4236-BA87-7F79AFE07DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>SaD,RaP,FaP,SaP,FaD,WaP,WaD,RaD</t>
-  </si>
-  <si>
-    <t>FaP,SaP,FaN,SaN,WaN,RaP,RaN,WaP</t>
+    <t>WaD,RaP,RaD,FaP,SaP,WaP,FaD,SaD</t>
+  </si>
+  <si>
+    <t>WaP,SaN,WaN,FaN,RaN,RaP,FaP,SaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -908,7 +908,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaP,SaP,FaN,SaN,WaN,RaP,RaN,WaP</v>
+        <v>WaP,SaN,WaN,FaN,RaN,RaP,FaP,SaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -940,7 +940,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>SaD,RaP,FaP,SaP,FaD,WaP,WaD,RaD</v>
+        <v>WaD,RaP,RaD,FaP,SaP,WaP,FaD,SaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1553,7 +1553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F279CAA3-CF32-41C5-A2A7-AAAE7BCB54D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863A0601-3099-4CC2-BCB3-4D87AB369BB6}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6207BA-0B87-4B81-8EB5-E011E3147D2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCECD4A-C809-47C9-B26A-3FBD87D6D60C}">
   <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1991,7 +1991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD8291F-5709-472D-9869-F83722C64EFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD459BBB-4930-4BC9-BADB-312BCC1B84DF}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_SAU/SuppXLS/scen_tsparameters_ts_16.xlsx
+++ b/VerveStacks_SAU/SuppXLS/scen_tsparameters_ts_16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4832C857-2A5C-4236-BA87-7F79AFE07DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88318AD-AEC2-4D82-B589-E0A76B68A7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12682" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaD,RaP,RaD,FaP,SaP,WaP,FaD,SaD</t>
-  </si>
-  <si>
-    <t>WaP,SaN,WaN,FaN,RaN,RaP,FaP,SaP</t>
+    <t>SaD,RaD,WaP,WaD,FaP,SaP,RaP,FaD</t>
+  </si>
+  <si>
+    <t>SaN,WaN,WaP,FaP,SaP,FaN,RaN,RaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -908,7 +908,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>WaP,SaN,WaN,FaN,RaN,RaP,FaP,SaP</v>
+        <v>SaN,WaN,WaP,FaP,SaP,FaN,RaN,RaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -940,7 +940,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaD,RaP,RaD,FaP,SaP,WaP,FaD,SaD</v>
+        <v>SaD,RaD,WaP,WaD,FaP,SaP,RaP,FaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1553,7 +1553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863A0601-3099-4CC2-BCB3-4D87AB369BB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969A778C-A6D4-47E7-9AF7-685DD5C18E7A}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCECD4A-C809-47C9-B26A-3FBD87D6D60C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCC59DC-2CA5-426F-8C3D-74244E1CDFCD}">
   <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1991,7 +1991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD459BBB-4930-4BC9-BADB-312BCC1B84DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876DCD17-48CA-4969-A8F2-8446BCBC439E}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
